--- a/po_analysis_by_asin/B0CTTWH6TD_po_data.xlsx
+++ b/po_analysis_by_asin/B0CTTWH6TD_po_data.xlsx
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45334</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>72</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45341</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>24</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45355</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>32</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45362</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>16</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45369</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>8</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45376</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>24</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45383</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>32</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45390</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>112</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45397</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>16</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45404</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>32</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45418</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>32</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45425</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>16</v>
@@ -548,7 +548,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45516</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>16</v>
@@ -556,7 +556,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45558</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B15" t="n">
         <v>16</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45579</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B16" t="n">
         <v>16</v>
@@ -603,7 +603,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45323</v>
+        <v>45351.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>96</v>
@@ -611,7 +611,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45352</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>80</v>
@@ -619,7 +619,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45383</v>
+        <v>45412.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>192</v>
@@ -627,7 +627,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45413</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>48</v>
@@ -635,7 +635,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45505</v>
+        <v>45535.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>16</v>
@@ -643,7 +643,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45536</v>
+        <v>45565.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>16</v>
@@ -651,7 +651,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45566</v>
+        <v>45596.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>16</v>

--- a/po_analysis_by_asin/B0CTTWH6TD_po_data.xlsx
+++ b/po_analysis_by_asin/B0CTTWH6TD_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -597,7 +598,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -655,6 +656,369 @@
       </c>
       <c r="B8" t="n">
         <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>39</v>
+      </c>
+      <c r="C2" t="n">
+        <v>7.961621341697001</v>
+      </c>
+      <c r="D2" t="n">
+        <v>71.75586530405224</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>39</v>
+      </c>
+      <c r="C3" t="n">
+        <v>10.19746556306054</v>
+      </c>
+      <c r="D3" t="n">
+        <v>74.55260551194608</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>37</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5.012134386100799</v>
+      </c>
+      <c r="D4" t="n">
+        <v>69.54879722561734</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>36</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3.964239245472245</v>
+      </c>
+      <c r="D5" t="n">
+        <v>69.19853327395971</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>36</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6.86942921611727</v>
+      </c>
+      <c r="D6" t="n">
+        <v>67.18229861421236</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>35</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3.277888892415623</v>
+      </c>
+      <c r="D7" t="n">
+        <v>68.18653463292161</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>34</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4.151753371281339</v>
+      </c>
+      <c r="D8" t="n">
+        <v>66.02874060705973</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>33</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3.919862250932204</v>
+      </c>
+      <c r="D9" t="n">
+        <v>65.63645674195377</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>33</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2933242043822515</v>
+      </c>
+      <c r="D10" t="n">
+        <v>62.56879649014979</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>32</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.4774695139083556</v>
+      </c>
+      <c r="D11" t="n">
+        <v>62.57844851296599</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>30</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.4551030050587972</v>
+      </c>
+      <c r="D12" t="n">
+        <v>63.41413409850946</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>30</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-1.036734291383935</v>
+      </c>
+      <c r="D13" t="n">
+        <v>58.88624131466359</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>20</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-13.71819345348438</v>
+      </c>
+      <c r="D14" t="n">
+        <v>50.92854556601289</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>15</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-13.86788093347226</v>
+      </c>
+      <c r="D15" t="n">
+        <v>46.6915502287987</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>13</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-16.35701204240086</v>
+      </c>
+      <c r="D16" t="n">
+        <v>42.57472849629418</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>12</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-19.69258931204238</v>
+      </c>
+      <c r="D17" t="n">
+        <v>45.22376805499871</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>12</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-19.92727024684887</v>
+      </c>
+      <c r="D18" t="n">
+        <v>45.1952457053766</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>11</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-22.31229175397433</v>
+      </c>
+      <c r="D19" t="n">
+        <v>42.45611464704582</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>10</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-22.89201665495384</v>
+      </c>
+      <c r="D20" t="n">
+        <v>40.49027370102974</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>9</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-20.9264159636544</v>
+      </c>
+      <c r="D21" t="n">
+        <v>41.39084655200069</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>9</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-22.01121751955069</v>
+      </c>
+      <c r="D22" t="n">
+        <v>39.93959783216765</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>8</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-24.12290462415216</v>
+      </c>
+      <c r="D23" t="n">
+        <v>41.41813845980244</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>7</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-26.11847019435924</v>
+      </c>
+      <c r="D24" t="n">
+        <v>39.53592937130932</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0CTTWH6TD_po_data.xlsx
+++ b/po_analysis_by_asin/B0CTTWH6TD_po_data.xlsx
@@ -669,7 +669,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -688,16 +688,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -706,12 +696,6 @@
       <c r="B2" t="n">
         <v>39</v>
       </c>
-      <c r="C2" t="n">
-        <v>7.961621341697001</v>
-      </c>
-      <c r="D2" t="n">
-        <v>71.75586530405224</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -720,12 +704,6 @@
       <c r="B3" t="n">
         <v>39</v>
       </c>
-      <c r="C3" t="n">
-        <v>10.19746556306054</v>
-      </c>
-      <c r="D3" t="n">
-        <v>74.55260551194608</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -734,12 +712,6 @@
       <c r="B4" t="n">
         <v>37</v>
       </c>
-      <c r="C4" t="n">
-        <v>5.012134386100799</v>
-      </c>
-      <c r="D4" t="n">
-        <v>69.54879722561734</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -748,12 +720,6 @@
       <c r="B5" t="n">
         <v>36</v>
       </c>
-      <c r="C5" t="n">
-        <v>3.964239245472245</v>
-      </c>
-      <c r="D5" t="n">
-        <v>69.19853327395971</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -762,12 +728,6 @@
       <c r="B6" t="n">
         <v>36</v>
       </c>
-      <c r="C6" t="n">
-        <v>6.86942921611727</v>
-      </c>
-      <c r="D6" t="n">
-        <v>67.18229861421236</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -776,12 +736,6 @@
       <c r="B7" t="n">
         <v>35</v>
       </c>
-      <c r="C7" t="n">
-        <v>3.277888892415623</v>
-      </c>
-      <c r="D7" t="n">
-        <v>68.18653463292161</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -790,12 +744,6 @@
       <c r="B8" t="n">
         <v>34</v>
       </c>
-      <c r="C8" t="n">
-        <v>4.151753371281339</v>
-      </c>
-      <c r="D8" t="n">
-        <v>66.02874060705973</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -804,12 +752,6 @@
       <c r="B9" t="n">
         <v>33</v>
       </c>
-      <c r="C9" t="n">
-        <v>3.919862250932204</v>
-      </c>
-      <c r="D9" t="n">
-        <v>65.63645674195377</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -818,12 +760,6 @@
       <c r="B10" t="n">
         <v>33</v>
       </c>
-      <c r="C10" t="n">
-        <v>0.2933242043822515</v>
-      </c>
-      <c r="D10" t="n">
-        <v>62.56879649014979</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -832,12 +768,6 @@
       <c r="B11" t="n">
         <v>32</v>
       </c>
-      <c r="C11" t="n">
-        <v>-0.4774695139083556</v>
-      </c>
-      <c r="D11" t="n">
-        <v>62.57844851296599</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -846,12 +776,6 @@
       <c r="B12" t="n">
         <v>30</v>
       </c>
-      <c r="C12" t="n">
-        <v>0.4551030050587972</v>
-      </c>
-      <c r="D12" t="n">
-        <v>63.41413409850946</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -860,12 +784,6 @@
       <c r="B13" t="n">
         <v>30</v>
       </c>
-      <c r="C13" t="n">
-        <v>-1.036734291383935</v>
-      </c>
-      <c r="D13" t="n">
-        <v>58.88624131466359</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -874,12 +792,6 @@
       <c r="B14" t="n">
         <v>20</v>
       </c>
-      <c r="C14" t="n">
-        <v>-13.71819345348438</v>
-      </c>
-      <c r="D14" t="n">
-        <v>50.92854556601289</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -888,12 +800,6 @@
       <c r="B15" t="n">
         <v>15</v>
       </c>
-      <c r="C15" t="n">
-        <v>-13.86788093347226</v>
-      </c>
-      <c r="D15" t="n">
-        <v>46.6915502287987</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -902,12 +808,6 @@
       <c r="B16" t="n">
         <v>13</v>
       </c>
-      <c r="C16" t="n">
-        <v>-16.35701204240086</v>
-      </c>
-      <c r="D16" t="n">
-        <v>42.57472849629418</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -916,12 +816,6 @@
       <c r="B17" t="n">
         <v>12</v>
       </c>
-      <c r="C17" t="n">
-        <v>-19.69258931204238</v>
-      </c>
-      <c r="D17" t="n">
-        <v>45.22376805499871</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -930,12 +824,6 @@
       <c r="B18" t="n">
         <v>12</v>
       </c>
-      <c r="C18" t="n">
-        <v>-19.92727024684887</v>
-      </c>
-      <c r="D18" t="n">
-        <v>45.1952457053766</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -944,12 +832,6 @@
       <c r="B19" t="n">
         <v>11</v>
       </c>
-      <c r="C19" t="n">
-        <v>-22.31229175397433</v>
-      </c>
-      <c r="D19" t="n">
-        <v>42.45611464704582</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -958,12 +840,6 @@
       <c r="B20" t="n">
         <v>10</v>
       </c>
-      <c r="C20" t="n">
-        <v>-22.89201665495384</v>
-      </c>
-      <c r="D20" t="n">
-        <v>40.49027370102974</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -972,12 +848,6 @@
       <c r="B21" t="n">
         <v>9</v>
       </c>
-      <c r="C21" t="n">
-        <v>-20.9264159636544</v>
-      </c>
-      <c r="D21" t="n">
-        <v>41.39084655200069</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -986,12 +856,6 @@
       <c r="B22" t="n">
         <v>9</v>
       </c>
-      <c r="C22" t="n">
-        <v>-22.01121751955069</v>
-      </c>
-      <c r="D22" t="n">
-        <v>39.93959783216765</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1000,12 +864,6 @@
       <c r="B23" t="n">
         <v>8</v>
       </c>
-      <c r="C23" t="n">
-        <v>-24.12290462415216</v>
-      </c>
-      <c r="D23" t="n">
-        <v>41.41813845980244</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1013,12 +871,6 @@
       </c>
       <c r="B24" t="n">
         <v>7</v>
-      </c>
-      <c r="C24" t="n">
-        <v>-26.11847019435924</v>
-      </c>
-      <c r="D24" t="n">
-        <v>39.53592937130932</v>
       </c>
     </row>
   </sheetData>
